--- a/tes mahasiswa pddikti.xlsx
+++ b/tes mahasiswa pddikti.xlsx
@@ -2831,7 +2831,7 @@
   </sheetPr>
   <dimension ref="A1:E838"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
